--- a/Unity/Assets/Config/Excel/DropConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20175" windowHeight="8325"/>
+    <workbookView windowWidth="19815" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="DropConfigProto" sheetId="1" r:id="rId1"/>
@@ -785,7 +785,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -805,9 +805,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -857,9 +854,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1217,7 +1211,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -1225,12 +1219,12 @@
     <col min="1" max="1" width="21.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="20" style="6" customWidth="1"/>
     <col min="3" max="3" width="18.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="30.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="4" max="4" width="13.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="30.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1249,11 +1243,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -1271,36 +1265,34 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1308,13 +1300,13 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1322,13 +1314,13 @@
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1348,11 +1340,11 @@
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="6">
@@ -1361,32 +1353,30 @@
       <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="6">
         <v>10000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>60010</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="8">
+    <row r="9" spans="6:8">
+      <c r="F9" s="7">
         <v>60011</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>5000</v>
       </c>
     </row>
@@ -1397,45 +1387,41 @@
       <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="6">
         <v>2</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="6">
         <v>10000</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>60010</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>1</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="8">
+    <row r="11" spans="6:8">
+      <c r="F11" s="7">
         <v>60011</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>1</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="8">
+    <row r="12" spans="6:8">
+      <c r="F12" s="7">
         <v>60012</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>1</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>5000</v>
       </c>
     </row>
@@ -1446,37 +1432,35 @@
       <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="6">
         <v>400</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>60013</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="8">
+    <row r="14" spans="6:8">
+      <c r="F14" s="7">
         <v>60014</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>1</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>5000</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="26"/>
+      <c r="C15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/Unity/Assets/Config/Excel/DropConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="10455"/>
+    <workbookView windowWidth="25350" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="DropConfigProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>掉落包10003</t>
+  </si>
+  <si>
+    <t>掉落包10004</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1214,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -1459,8 +1462,28 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="24"/>
+    <row r="15" spans="2:8">
+      <c r="B15" s="6">
+        <v>10004</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="7">
+        <v>60015</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/Unity/Assets/Config/Excel/DropConfig.xlsx
+++ b/Unity/Assets/Config/Excel/DropConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25350" windowHeight="10455"/>
+    <workbookView windowWidth="25590" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="DropConfigProto" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +154,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -657,138 +663,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -861,6 +867,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1211,13 +1220,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="20" style="6" customWidth="1"/>
@@ -1462,7 +1471,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" ht="30" spans="2:11">
       <c r="B15" s="6">
         <v>10004</v>
       </c>
@@ -1484,6 +1493,7 @@
       <c r="H15" s="8">
         <v>10000</v>
       </c>
+      <c r="K15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="16">
